--- a/Gephi/Network Analysis Data.xlsx
+++ b/Gephi/Network Analysis Data.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eugenehwang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eugenehwang/Documents/GitHub/FedRAMP_800-53_Controls/Gephi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335AB30A-C510-E044-9943-FACA9E23451B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAD0EE4-DDF1-0443-A8F3-BED797861DC3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27620" windowHeight="17540" activeTab="1" xr2:uid="{303BBAE9-04C2-7E46-8561-18A43FF2991E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27620" windowHeight="17540" xr2:uid="{303BBAE9-04C2-7E46-8561-18A43FF2991E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$42:$J$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$22:$I$40</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -31,9 +31,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="63">
   <si>
-    <t>All Nodes</t>
-  </si>
-  <si>
     <t>Access Control</t>
   </si>
   <si>
@@ -208,9 +205,6 @@
     <t>triad count</t>
   </si>
   <si>
-    <t>triad/node</t>
-  </si>
-  <si>
     <t>Degree</t>
   </si>
   <si>
@@ -218,13 +212,19 @@
   </si>
   <si>
     <t>Triad/Node</t>
+  </si>
+  <si>
+    <t>Node count</t>
+  </si>
+  <si>
+    <t>Triad count ratio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -317,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -340,6 +340,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,33 +657,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F54D05-8402-AC46-A039-8B6EF61B8E66}">
   <dimension ref="F1:O60"/>
   <sheetViews>
-    <sheetView topLeftCell="C23" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43:I59"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N16" sqref="M16:N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="6" max="6" width="34.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.1640625" customWidth="1"/>
     <col min="8" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="34.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="6:15">
       <c r="F1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="6:15" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="6:15">
       <c r="F2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" s="1" t="str">
         <f>TRIM(F2)</f>
@@ -693,813 +696,808 @@
         <v>CM</v>
       </c>
       <c r="I2" s="4">
-        <v>18.636364</v>
+        <v>15.090909</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N2" s="1" t="str">
         <f>TRIM(M2)</f>
         <v>Access Control</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="6:15" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="6:15">
       <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <f>TRIM(F3)</f>
+        <v>Maintenance</v>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f>VLOOKUP(G3,$N$2:$O$19,2,FALSE)</f>
+        <v>MA</v>
+      </c>
+      <c r="I3" s="4">
+        <v>10</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="1" t="str">
+        <f t="shared" ref="N3:N19" si="0">TRIM(M3)</f>
+        <v>Audit and Accountability</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="6:15">
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f>TRIM(F4)</f>
+        <v>Security Assessment and Authorization</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f>VLOOKUP(G4,$N$2:$O$19,2,FALSE)</f>
+        <v>CA</v>
+      </c>
+      <c r="I4" s="4">
+        <v>9.4444440000000007</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Awareness and Training</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="6:15">
+      <c r="F5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f>TRIM(F5)</f>
+        <v>Access Control</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f>VLOOKUP(G5,$N$2:$O$19,2,FALSE)</f>
+        <v>AC</v>
+      </c>
+      <c r="I5" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Configuration Management</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="6:15">
+      <c r="F6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f>TRIM(F6)</f>
+        <v>Audit and Accountability</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f>VLOOKUP(G6,$N$2:$O$19,2,FALSE)</f>
+        <v>AU</v>
+      </c>
+      <c r="I6" s="4">
+        <v>8.4375</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Contingency Planning</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="6:15">
+      <c r="F7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="1" t="str">
-        <f t="shared" ref="G3:G20" si="0">TRIM(F3)</f>
+      <c r="G7" s="1" t="str">
+        <f>TRIM(F7)</f>
+        <v>Media Protection</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f>VLOOKUP(G7,$N$2:$O$19,2,FALSE)</f>
+        <v>MP</v>
+      </c>
+      <c r="I7" s="4">
+        <v>8.25</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Identification and Authentication</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="6:15">
+      <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f>TRIM(F8)</f>
+        <v>Identification and Authentication</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f>VLOOKUP(G8,$N$2:$O$19,2,FALSE)</f>
+        <v>IA</v>
+      </c>
+      <c r="I8" s="4">
+        <v>7.3636359999999996</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Incident Response</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="6:15">
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f>TRIM(F9)</f>
+        <v>System and Information Integrity</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f>VLOOKUP(G9,$N$2:$O$19,2,FALSE)</f>
+        <v>SI</v>
+      </c>
+      <c r="I9" s="4">
+        <v>7.2352939999999997</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>Maintenance</v>
       </c>
-      <c r="H3" s="1" t="str">
-        <f t="shared" ref="H3:H20" si="1">VLOOKUP(G3,$N$2:$O$19,2,FALSE)</f>
-        <v>MA</v>
-      </c>
-      <c r="I3" s="4">
+      <c r="O9" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="6:15">
+      <c r="F10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f>TRIM(F10)</f>
+        <v>Incident Response</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f>VLOOKUP(G10,$N$2:$O$19,2,FALSE)</f>
+        <v>IR</v>
+      </c>
+      <c r="I10" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Media Protection</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="6:15">
+      <c r="F11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="1" t="str">
-        <f t="shared" ref="N3:N19" si="2">TRIM(M3)</f>
-        <v>Audit and Accountability</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F4" s="1" t="s">
+      <c r="G11" s="1" t="str">
+        <f>TRIM(F11)</f>
+        <v>Risk Assessment</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f>VLOOKUP(G11,$N$2:$O$19,2,FALSE)</f>
+        <v>RA</v>
+      </c>
+      <c r="I11" s="4">
+        <v>6.6666670000000003</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Personnel Security</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="6:15">
+      <c r="F12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="G12" s="1" t="str">
+        <f>TRIM(F12)</f>
+        <v>Awareness and Training</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f>VLOOKUP(G12,$N$2:$O$19,2,FALSE)</f>
+        <v>AT</v>
+      </c>
+      <c r="I12" s="4">
+        <v>6.4</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Access Control</v>
-      </c>
-      <c r="H4" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>AC</v>
-      </c>
-      <c r="I4" s="4">
-        <v>12.64</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Awareness and Training</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="1" t="str">
+        <v>Physical and Environmental Protection</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="6:15">
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f>TRIM(F13)</f>
+        <v>Contingency Planning</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f>VLOOKUP(G13,$N$2:$O$19,2,FALSE)</f>
+        <v>CP</v>
+      </c>
+      <c r="I13" s="4">
+        <v>6.3846150000000002</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Planning</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="6:15">
+      <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f>TRIM(F14)</f>
+        <v>Planning</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f>VLOOKUP(G14,$N$2:$O$19,2,FALSE)</f>
+        <v>PL</v>
+      </c>
+      <c r="I14" s="4">
+        <v>6.3333329999999997</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Program Management</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="6:15">
+      <c r="F15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f>TRIM(F15)</f>
+        <v>Personnel Security</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f>VLOOKUP(G15,$N$2:$O$19,2,FALSE)</f>
+        <v>PS</v>
+      </c>
+      <c r="I15" s="4">
+        <v>6.25</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Risk Assessment</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="6:15">
+      <c r="F16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f>TRIM(F16)</f>
+        <v>System and Services Acquisition</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f>VLOOKUP(G16,$N$2:$O$19,2,FALSE)</f>
+        <v>SA</v>
+      </c>
+      <c r="I16" s="4">
+        <v>5.9090910000000001</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Security Assessment and Authorization</v>
       </c>
-      <c r="H5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>CA</v>
-      </c>
-      <c r="I5" s="4">
-        <v>12.111110999999999</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Configuration Management</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1" t="str">
+      <c r="O16" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="6:15">
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f>TRIM(F17)</f>
+        <v>System and Communications Protection</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f>VLOOKUP(G17,$N$2:$O$19,2,FALSE)</f>
+        <v>SC</v>
+      </c>
+      <c r="I17" s="4">
+        <v>4.2727269999999997</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Audit and Accountability</v>
-      </c>
-      <c r="H6" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>AU</v>
-      </c>
-      <c r="I6" s="4">
-        <v>10.75</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Contingency Planning</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Identification and Authentication</v>
-      </c>
-      <c r="H7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>IA</v>
-      </c>
-      <c r="I7" s="4">
-        <v>10.272727</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Identification and Authentication</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F8" s="1" t="s">
+        <v>System and Communications Protection</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="6:15">
+      <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Media Protection</v>
-      </c>
-      <c r="H8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>MP</v>
-      </c>
-      <c r="I8" s="4">
-        <v>10</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N8" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Incident Response</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="1" t="str">
+      <c r="G18" s="1" t="str">
+        <f>TRIM(F18)</f>
+        <v>Physical and Environmental Protection</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f>VLOOKUP(G18,$N$2:$O$19,2,FALSE)</f>
+        <v>PE</v>
+      </c>
+      <c r="I18" s="4">
+        <v>4.05</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>System and Information Integrity</v>
       </c>
-      <c r="H9" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>SI</v>
-      </c>
-      <c r="I9" s="4">
-        <v>8.9411760000000005</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N9" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Maintenance</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Contingency Planning</v>
-      </c>
-      <c r="H10" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>CP</v>
-      </c>
-      <c r="I10" s="4">
-        <v>8.7692309999999996</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N10" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Media Protection</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>All Nodes</v>
-      </c>
-      <c r="H11" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I11" s="4">
-        <v>8.6171880000000005</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N11" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Personnel Security</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Awareness and Training</v>
-      </c>
-      <c r="H12" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>AT</v>
-      </c>
-      <c r="I12" s="4">
-        <v>8.6</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N12" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Physical and Environmental Protection</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Planning</v>
-      </c>
-      <c r="H13" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>PL</v>
-      </c>
-      <c r="I13" s="4">
-        <v>8.5555559999999993</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N13" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Planning</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Incident Response</v>
-      </c>
-      <c r="H14" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>IR</v>
-      </c>
-      <c r="I14" s="4">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N14" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="O18" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="6:15">
+      <c r="F19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f>TRIM(F19)</f>
         <v>Program Management</v>
       </c>
-      <c r="O14" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Risk Assessment</v>
-      </c>
-      <c r="H15" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>RA</v>
-      </c>
-      <c r="I15" s="4">
-        <v>8</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N15" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Risk Assessment</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Personnel Security</v>
-      </c>
-      <c r="H16" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>PS</v>
-      </c>
-      <c r="I16" s="4">
-        <v>7.875</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N16" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Security Assessment and Authorization</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="1" t="str">
+      <c r="H19" s="1" t="str">
+        <f>VLOOKUP(G19,$N$2:$O$19,2,FALSE)</f>
+        <v>PM</v>
+      </c>
+      <c r="I19" s="4">
+        <v>2.875</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>System and Services Acquisition</v>
       </c>
-      <c r="H17" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>SA</v>
-      </c>
-      <c r="I17" s="4">
-        <v>7.5909089999999999</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N17" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>System and Communications Protection</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>System and Communications Protection</v>
-      </c>
-      <c r="H18" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>SC</v>
-      </c>
-      <c r="I18" s="4">
-        <v>5.4318179999999998</v>
-      </c>
-      <c r="M18" s="1" t="s">
+      <c r="O19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N18" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>System and Information Integrity</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Physical and Environmental Protection</v>
-      </c>
-      <c r="H19" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>PE</v>
-      </c>
-      <c r="I19" s="4">
-        <v>5.05</v>
-      </c>
-      <c r="M19" s="3" t="s">
+    </row>
+    <row r="20" spans="6:15">
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="22" spans="6:15">
+      <c r="H22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" t="s">
         <v>56</v>
       </c>
-      <c r="N19" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>System and Services Acquisition</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="1" t="str">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="23" spans="6:15">
+      <c r="F23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" t="str">
+        <f>TRIM(F23)</f>
         <v>Program Management</v>
       </c>
-      <c r="H20" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>PM</v>
-      </c>
-      <c r="I20" s="4">
-        <v>2.875</v>
-      </c>
-    </row>
-    <row r="22" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="H22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" ref="G23:G40" si="3">TRIM(F23)</f>
-        <v>Program Management</v>
-      </c>
       <c r="H23" t="str">
-        <f t="shared" ref="H23:H40" si="4">VLOOKUP(G23,$N$2:$O$19,2,FALSE)</f>
+        <f>VLOOKUP(G23,$N$2:$O$19,2,FALSE)</f>
         <v>PM</v>
       </c>
       <c r="I23" s="4">
         <v>0.53766199999999997</v>
       </c>
     </row>
-    <row r="24" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:15">
       <c r="F24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="3"/>
+        <f>TRIM(F24)</f>
         <v>Incident Response</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="4"/>
+        <f>VLOOKUP(G24,$N$2:$O$19,2,FALSE)</f>
         <v>IR</v>
       </c>
       <c r="I24" s="4">
         <v>0.47654999999999997</v>
       </c>
     </row>
-    <row r="25" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="6:15">
       <c r="F25" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="3"/>
+        <f>TRIM(F25)</f>
         <v>Security Assessment and Authorization</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="4"/>
+        <f>VLOOKUP(G25,$N$2:$O$19,2,FALSE)</f>
         <v>CA</v>
       </c>
       <c r="I25" s="4">
         <v>0.43850499999999998</v>
       </c>
     </row>
-    <row r="26" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="6:15">
       <c r="F26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="3"/>
+        <f>TRIM(F26)</f>
         <v>Personnel Security</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="4"/>
+        <f>VLOOKUP(G26,$N$2:$O$19,2,FALSE)</f>
         <v>PS</v>
       </c>
       <c r="I26" s="4">
         <v>0.402721</v>
       </c>
     </row>
-    <row r="27" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="6:15">
       <c r="F27" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="3"/>
+        <f>TRIM(F27)</f>
         <v>Identification and Authentication</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="4"/>
+        <f>VLOOKUP(G27,$N$2:$O$19,2,FALSE)</f>
         <v>IA</v>
       </c>
       <c r="I27" s="4">
         <v>0.39213599999999998</v>
       </c>
     </row>
-    <row r="28" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="6:15">
       <c r="F28" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="3"/>
+        <f>TRIM(F28)</f>
         <v>Audit and Accountability</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="4"/>
+        <f>VLOOKUP(G28,$N$2:$O$19,2,FALSE)</f>
         <v>AU</v>
       </c>
       <c r="I28" s="4">
         <v>0.39147599999999999</v>
       </c>
     </row>
-    <row r="29" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:15">
       <c r="F29" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="3"/>
+        <f>TRIM(F29)</f>
         <v>Contingency Planning</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="4"/>
+        <f>VLOOKUP(G29,$N$2:$O$19,2,FALSE)</f>
         <v>CP</v>
       </c>
       <c r="I29" s="4">
         <v>0.37007499999999999</v>
       </c>
     </row>
-    <row r="30" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="6:15">
       <c r="F30" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="3"/>
+        <f>TRIM(F30)</f>
         <v>System and Communications Protection</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="4"/>
+        <f>VLOOKUP(G30,$N$2:$O$19,2,FALSE)</f>
         <v>SC</v>
       </c>
       <c r="I30" s="4">
         <v>0.36571599999999999</v>
       </c>
     </row>
-    <row r="31" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:15">
       <c r="F31" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="3"/>
+        <f>TRIM(F31)</f>
         <v>System and Information Integrity</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="4"/>
+        <f>VLOOKUP(G31,$N$2:$O$19,2,FALSE)</f>
         <v>SI</v>
       </c>
       <c r="I31" s="4">
         <v>0.354771</v>
       </c>
     </row>
-    <row r="32" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:15">
       <c r="F32" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="3"/>
+        <f>TRIM(F32)</f>
         <v>Maintenance</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="4"/>
+        <f>VLOOKUP(G32,$N$2:$O$19,2,FALSE)</f>
         <v>MA</v>
       </c>
       <c r="I32" s="4">
         <v>0.35338999999999998</v>
       </c>
     </row>
-    <row r="33" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:15">
       <c r="F33" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="3"/>
+        <f>TRIM(F33)</f>
         <v>Configuration Management</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="4"/>
+        <f>VLOOKUP(G33,$N$2:$O$19,2,FALSE)</f>
         <v>CM</v>
       </c>
       <c r="I33" s="4">
         <v>0.34620899999999999</v>
       </c>
     </row>
-    <row r="34" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:15">
       <c r="F34" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="3"/>
+        <f>TRIM(F34)</f>
         <v>Media Protection</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="4"/>
+        <f>VLOOKUP(G34,$N$2:$O$19,2,FALSE)</f>
         <v>MP</v>
       </c>
       <c r="I34" s="4">
         <v>0.33830500000000002</v>
       </c>
     </row>
-    <row r="35" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:15">
       <c r="F35" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="3"/>
+        <f>TRIM(F35)</f>
         <v>Physical and Environmental Protection</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="4"/>
+        <f>VLOOKUP(G35,$N$2:$O$19,2,FALSE)</f>
         <v>PE</v>
       </c>
       <c r="I35" s="4">
         <v>0.31992799999999999</v>
       </c>
     </row>
-    <row r="36" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:15">
       <c r="F36" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="3"/>
+        <f>TRIM(F36)</f>
         <v>Access Control</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="4"/>
+        <f>VLOOKUP(G36,$N$2:$O$19,2,FALSE)</f>
         <v>AC</v>
       </c>
       <c r="I36" s="4">
         <v>0.28906700000000002</v>
       </c>
     </row>
-    <row r="37" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:15">
       <c r="F37" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="3"/>
+        <f>TRIM(F37)</f>
         <v>System and Services Acquisition</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="4"/>
+        <f>VLOOKUP(G37,$N$2:$O$19,2,FALSE)</f>
         <v>SA</v>
       </c>
       <c r="I37" s="4">
         <v>0.271976</v>
       </c>
     </row>
-    <row r="38" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:15">
       <c r="F38" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="3"/>
+        <f>TRIM(F38)</f>
         <v>Risk Assessment</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="4"/>
+        <f>VLOOKUP(G38,$N$2:$O$19,2,FALSE)</f>
         <v>RA</v>
       </c>
       <c r="I38" s="4">
         <v>0.23281299999999999</v>
       </c>
     </row>
-    <row r="39" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:15">
       <c r="F39" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="3"/>
+        <f>TRIM(F39)</f>
         <v>Planning</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="4"/>
+        <f>VLOOKUP(G39,$N$2:$O$19,2,FALSE)</f>
         <v>PL</v>
       </c>
       <c r="I39" s="4">
         <v>0.216197</v>
       </c>
     </row>
-    <row r="40" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="6:15">
       <c r="F40" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="3"/>
+        <f>TRIM(F40)</f>
         <v>Awareness and Training</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="4"/>
+        <f>VLOOKUP(G40,$N$2:$O$19,2,FALSE)</f>
         <v>AT</v>
       </c>
       <c r="I40" s="4">
         <v>0.18939400000000001</v>
       </c>
     </row>
-    <row r="42" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="6:15">
       <c r="I42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J42" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="6:15" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="K42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="6:15">
       <c r="F43" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G43" t="str">
         <f>TRIM(F43)</f>
-        <v>Access Control</v>
+        <v>Contingency Planning</v>
       </c>
       <c r="H43" t="str">
         <f>VLOOKUP(G43,$N$2:$O$19,2,FALSE)</f>
-        <v>AC</v>
+        <v>CP</v>
       </c>
       <c r="I43" s="1">
-        <v>38</v>
-      </c>
-      <c r="J43" s="11">
-        <v>0.12025316455696203</v>
-      </c>
-      <c r="L43" s="11">
-        <f>I43/O43</f>
-        <v>0.12025316455696203</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="J43" s="14">
+        <f>VLOOKUP(H43,$N$43:$O$60,2,FALSE)</f>
+        <v>114</v>
+      </c>
+      <c r="K43" s="11">
+        <f>I43/J43</f>
+        <v>0.14912280701754385</v>
+      </c>
+      <c r="L43" s="11"/>
       <c r="N43" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O43" s="10">
         <v>316</v>
       </c>
     </row>
-    <row r="44" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="6:15">
       <c r="F44" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G44" t="str">
         <f>TRIM(F44)</f>
@@ -1512,255 +1510,273 @@
       <c r="I44" s="1">
         <v>25</v>
       </c>
-      <c r="J44" s="11">
+      <c r="J44" s="14">
+        <f>VLOOKUP(H44,$N$43:$O$60,2,FALSE)</f>
+        <v>205</v>
+      </c>
+      <c r="K44" s="11">
+        <f>I44/J44</f>
         <v>0.12195121951219512</v>
       </c>
-      <c r="L44" s="11">
-        <f>I44/O44</f>
-        <v>0.10460251046025104</v>
-      </c>
+      <c r="L44" s="11"/>
       <c r="N44" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O44" s="10">
         <v>239</v>
       </c>
     </row>
-    <row r="45" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="6:15">
       <c r="F45" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G45" t="str">
         <f>TRIM(F45)</f>
-        <v>Audit and Accountability</v>
+        <v>Access Control</v>
       </c>
       <c r="H45" t="str">
         <f>VLOOKUP(G45,$N$2:$O$19,2,FALSE)</f>
-        <v>AU</v>
+        <v>AC</v>
       </c>
       <c r="I45" s="1">
-        <v>18</v>
-      </c>
-      <c r="J45" s="11">
-        <v>0.10465116279069768</v>
-      </c>
-      <c r="L45" s="11">
-        <f>I45/O45</f>
-        <v>8.7804878048780483E-2</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="J45" s="14">
+        <f>VLOOKUP(H45,$N$43:$O$60,2,FALSE)</f>
+        <v>316</v>
+      </c>
+      <c r="K45" s="11">
+        <f>I45/J45</f>
+        <v>0.12025316455696203</v>
+      </c>
+      <c r="L45" s="11"/>
       <c r="N45" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O45" s="10">
         <v>205</v>
       </c>
     </row>
-    <row r="46" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="6:15">
       <c r="F46" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G46" t="str">
         <f>TRIM(F46)</f>
-        <v>Contingency Planning</v>
+        <v>Incident Response</v>
       </c>
       <c r="H46" t="str">
         <f>VLOOKUP(G46,$N$2:$O$19,2,FALSE)</f>
-        <v>CP</v>
+        <v>IR</v>
       </c>
       <c r="I46" s="1">
-        <v>17</v>
-      </c>
-      <c r="J46" s="11">
-        <v>0.14912280701754385</v>
-      </c>
-      <c r="L46" s="11">
-        <f>I46/O46</f>
-        <v>9.8837209302325577E-2</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="J46" s="14">
+        <f>VLOOKUP(H46,$N$43:$O$60,2,FALSE)</f>
+        <v>83</v>
+      </c>
+      <c r="K46" s="11">
+        <f>I46/J46</f>
+        <v>0.10843373493975904</v>
+      </c>
+      <c r="L46" s="11"/>
       <c r="N46" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O46" s="10">
         <v>172</v>
       </c>
     </row>
-    <row r="47" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="6:15">
       <c r="F47" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G47" t="str">
         <f>TRIM(F47)</f>
-        <v>System and Services Acquisition</v>
+        <v>Audit and Accountability</v>
       </c>
       <c r="H47" t="str">
         <f>VLOOKUP(G47,$N$2:$O$19,2,FALSE)</f>
-        <v>SA</v>
+        <v>AU</v>
       </c>
       <c r="I47" s="1">
-        <v>12</v>
-      </c>
-      <c r="J47" s="11">
-        <v>7.1856287425149698E-2</v>
-      </c>
-      <c r="L47" s="11">
-        <f>I47/O47</f>
-        <v>7.1856287425149698E-2</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="J47" s="14">
+        <f>VLOOKUP(H47,$N$43:$O$60,2,FALSE)</f>
+        <v>172</v>
+      </c>
+      <c r="K47" s="11">
+        <f>I47/J47</f>
+        <v>0.10465116279069768</v>
+      </c>
+      <c r="L47" s="11"/>
       <c r="N47" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O47" s="10">
         <v>167</v>
       </c>
     </row>
-    <row r="48" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="6:15">
       <c r="F48" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G48" t="str">
         <f>TRIM(F48)</f>
-        <v>Incident Response</v>
+        <v>Personnel Security</v>
       </c>
       <c r="H48" t="str">
         <f>VLOOKUP(G48,$N$2:$O$19,2,FALSE)</f>
-        <v>IR</v>
+        <v>PS</v>
       </c>
       <c r="I48" s="1">
-        <v>9</v>
-      </c>
-      <c r="J48" s="11">
-        <v>0.10843373493975904</v>
-      </c>
-      <c r="L48" s="11">
-        <f>I48/O48</f>
-        <v>5.921052631578947E-2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="J48" s="14">
+        <f>VLOOKUP(H48,$N$43:$O$60,2,FALSE)</f>
+        <v>63</v>
+      </c>
+      <c r="K48" s="11">
+        <f>I48/J48</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="L48" s="11"/>
       <c r="N48" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O48" s="10">
         <v>152</v>
       </c>
     </row>
-    <row r="49" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="6:15">
       <c r="F49" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G49" t="str">
         <f>TRIM(F49)</f>
-        <v>System and Communications Protection</v>
+        <v>System and Services Acquisition</v>
       </c>
       <c r="H49" t="str">
         <f>VLOOKUP(G49,$N$2:$O$19,2,FALSE)</f>
-        <v>SC</v>
+        <v>SA</v>
       </c>
       <c r="I49" s="1">
-        <v>8</v>
-      </c>
-      <c r="J49" s="11">
-        <v>3.3472803347280332E-2</v>
-      </c>
-      <c r="L49" s="11">
-        <f>I49/O49</f>
-        <v>7.0175438596491224E-2</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J49" s="14">
+        <f>VLOOKUP(H49,$N$43:$O$60,2,FALSE)</f>
+        <v>167</v>
+      </c>
+      <c r="K49" s="11">
+        <f>I49/J49</f>
+        <v>7.1856287425149698E-2</v>
+      </c>
+      <c r="L49" s="11"/>
       <c r="N49" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O49" s="10">
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="6:15">
       <c r="F50" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G50" t="str">
         <f>TRIM(F50)</f>
-        <v>Personnel Security</v>
+        <v>Identification and Authentication</v>
       </c>
       <c r="H50" t="str">
         <f>VLOOKUP(G50,$N$2:$O$19,2,FALSE)</f>
-        <v>PS</v>
+        <v>IA</v>
       </c>
       <c r="I50" s="1">
-        <v>6</v>
-      </c>
-      <c r="J50" s="11">
-        <v>9.5238095238095233E-2</v>
-      </c>
-      <c r="L50" s="11">
-        <f>I50/O50</f>
-        <v>5.3097345132743362E-2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J50" s="14">
+        <f>VLOOKUP(H50,$N$43:$O$60,2,FALSE)</f>
+        <v>113</v>
+      </c>
+      <c r="K50" s="11">
+        <f>I50/J50</f>
+        <v>4.4247787610619468E-2</v>
+      </c>
+      <c r="L50" s="11"/>
       <c r="N50" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O50" s="10">
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="6:15">
       <c r="F51" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G51" t="str">
         <f>TRIM(F51)</f>
-        <v>Identification and Authentication</v>
+        <v>Physical and Environmental Protection</v>
       </c>
       <c r="H51" t="str">
         <f>VLOOKUP(G51,$N$2:$O$19,2,FALSE)</f>
-        <v>IA</v>
+        <v>PE</v>
       </c>
       <c r="I51" s="1">
-        <v>5</v>
-      </c>
-      <c r="J51" s="11">
-        <v>4.4247787610619468E-2</v>
-      </c>
-      <c r="L51" s="11">
-        <f>I51/O51</f>
-        <v>4.5871559633027525E-2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="J51" s="14">
+        <f>VLOOKUP(H51,$N$43:$O$60,2,FALSE)</f>
+        <v>101</v>
+      </c>
+      <c r="K51" s="11">
+        <f>I51/J51</f>
+        <v>3.9603960396039604E-2</v>
+      </c>
+      <c r="L51" s="11"/>
       <c r="N51" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O51" s="10">
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="6:15">
       <c r="F52" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G52" t="str">
         <f>TRIM(F52)</f>
-        <v>Physical and Environmental Protection</v>
+        <v>System and Communications Protection</v>
       </c>
       <c r="H52" t="str">
         <f>VLOOKUP(G52,$N$2:$O$19,2,FALSE)</f>
-        <v>PE</v>
+        <v>SC</v>
       </c>
       <c r="I52" s="1">
-        <v>4</v>
-      </c>
-      <c r="J52" s="11">
-        <v>3.9603960396039604E-2</v>
-      </c>
-      <c r="L52" s="11">
-        <f>I52/O52</f>
-        <v>3.9603960396039604E-2</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="J52" s="14">
+        <f>VLOOKUP(H52,$N$43:$O$60,2,FALSE)</f>
+        <v>239</v>
+      </c>
+      <c r="K52" s="11">
+        <f>I52/J52</f>
+        <v>3.3472803347280332E-2</v>
+      </c>
+      <c r="L52" s="11"/>
       <c r="N52" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O52" s="10">
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="6:15">
       <c r="F53" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G53" t="str">
         <f>TRIM(F53)</f>
@@ -1773,23 +1789,25 @@
       <c r="I53" s="1">
         <v>4</v>
       </c>
-      <c r="J53" s="11">
+      <c r="J53" s="14">
+        <f>VLOOKUP(H53,$N$43:$O$60,2,FALSE)</f>
+        <v>152</v>
+      </c>
+      <c r="K53" s="11">
+        <f>I53/J53</f>
         <v>2.6315789473684209E-2</v>
       </c>
-      <c r="L53" s="11">
-        <f>I53/O53</f>
-        <v>4.8192771084337352E-2</v>
-      </c>
+      <c r="L53" s="11"/>
       <c r="N53" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O53" s="10">
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="6:15">
       <c r="F54" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G54" t="str">
         <f>TRIM(F54)</f>
@@ -1802,110 +1820,118 @@
       <c r="I54" s="1">
         <v>2</v>
       </c>
-      <c r="J54" s="11">
+      <c r="J54" s="14">
+        <f>VLOOKUP(H54,$N$43:$O$60,2,FALSE)</f>
+        <v>78</v>
+      </c>
+      <c r="K54" s="11">
+        <f>I54/J54</f>
         <v>2.564102564102564E-2</v>
       </c>
-      <c r="L54" s="11">
-        <f>I54/O54</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
+      <c r="L54" s="11"/>
       <c r="N54" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O54" s="10">
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="6:15">
       <c r="F55" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G55" t="str">
         <f>TRIM(F55)</f>
-        <v>Security Assessment and Authorization</v>
+        <v>Awareness and Training</v>
       </c>
       <c r="H55" t="str">
         <f>VLOOKUP(G55,$N$2:$O$19,2,FALSE)</f>
-        <v>CA</v>
+        <v>AT</v>
       </c>
       <c r="I55" s="1">
-        <v>2</v>
-      </c>
-      <c r="J55" s="11">
-        <v>1.834862385321101E-2</v>
-      </c>
-      <c r="L55" s="11">
-        <f>I55/O55</f>
-        <v>2.564102564102564E-2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J55" s="14">
+        <f>VLOOKUP(H55,$N$43:$O$60,2,FALSE)</f>
+        <v>43</v>
+      </c>
+      <c r="K55" s="11">
+        <f>I55/J55</f>
+        <v>2.3255813953488372E-2</v>
+      </c>
+      <c r="L55" s="11"/>
       <c r="N55" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O55" s="10">
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="6:15">
       <c r="F56" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G56" t="str">
         <f>TRIM(F56)</f>
-        <v>Awareness and Training</v>
+        <v>Risk Assessment</v>
       </c>
       <c r="H56" t="str">
         <f>VLOOKUP(G56,$N$2:$O$19,2,FALSE)</f>
-        <v>AT</v>
+        <v>RA</v>
       </c>
       <c r="I56" s="1">
         <v>1</v>
       </c>
-      <c r="J56" s="11">
-        <v>2.3255813953488372E-2</v>
-      </c>
-      <c r="L56" s="11">
-        <f>I56/O56</f>
-        <v>1.2987012987012988E-2</v>
-      </c>
+      <c r="J56" s="14">
+        <f>VLOOKUP(H56,$N$43:$O$60,2,FALSE)</f>
+        <v>48</v>
+      </c>
+      <c r="K56" s="11">
+        <f>I56/J56</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="L56" s="11"/>
       <c r="N56" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O56" s="10">
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="6:15">
       <c r="F57" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G57" t="str">
         <f>TRIM(F57)</f>
-        <v>Risk Assessment</v>
+        <v>Security Assessment and Authorization</v>
       </c>
       <c r="H57" t="str">
         <f>VLOOKUP(G57,$N$2:$O$19,2,FALSE)</f>
-        <v>RA</v>
+        <v>CA</v>
       </c>
       <c r="I57" s="1">
-        <v>1</v>
-      </c>
-      <c r="J57" s="11">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="L57" s="11">
-        <f>I57/O57</f>
-        <v>1.5873015873015872E-2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J57" s="14">
+        <f>VLOOKUP(H57,$N$43:$O$60,2,FALSE)</f>
+        <v>109</v>
+      </c>
+      <c r="K57" s="11">
+        <f>I57/J57</f>
+        <v>1.834862385321101E-2</v>
+      </c>
+      <c r="L57" s="11"/>
       <c r="N57" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O57" s="10">
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="6:15">
       <c r="F58" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G58" t="str">
         <f>TRIM(F58)</f>
@@ -1918,23 +1944,25 @@
       <c r="I58" s="1">
         <v>1</v>
       </c>
-      <c r="J58" s="11">
+      <c r="J58" s="14">
+        <f>VLOOKUP(H58,$N$43:$O$60,2,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="K58" s="11">
+        <f>I58/J58</f>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="L58" s="11">
-        <f>I58/O58</f>
-        <v>2.0833333333333332E-2</v>
-      </c>
+      <c r="L58" s="11"/>
       <c r="N58" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O58" s="10">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="6:15">
       <c r="F59" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G59" t="str">
         <f>TRIM(F59)</f>
@@ -1947,23 +1975,25 @@
       <c r="I59" s="1">
         <v>0</v>
       </c>
-      <c r="J59" s="11">
+      <c r="J59" s="14">
+        <f>VLOOKUP(H59,$N$43:$O$60,2,FALSE)</f>
+        <v>77</v>
+      </c>
+      <c r="K59" s="11">
+        <f>I59/J59</f>
         <v>0</v>
       </c>
-      <c r="L59" s="11">
-        <f>I59/O59</f>
-        <v>0</v>
-      </c>
+      <c r="L59" s="11"/>
       <c r="N59" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O59" s="10">
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="6:15">
       <c r="F60" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G60" t="str">
         <f>TRIM(F60)</f>
@@ -1976,15 +2006,17 @@
       <c r="I60" s="1">
         <v>0</v>
       </c>
-      <c r="J60" s="11">
+      <c r="J60" s="14">
+        <f>VLOOKUP(H60,$N$43:$O$60,2,FALSE)</f>
+        <v>46</v>
+      </c>
+      <c r="K60" s="11">
+        <f>I60/J60</f>
         <v>0</v>
       </c>
-      <c r="L60" s="11">
-        <f>I60/O60</f>
-        <v>0</v>
-      </c>
+      <c r="L60" s="11"/>
       <c r="N60" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O60" s="10">
         <v>43</v>
@@ -2000,151 +2032,151 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12974B3F-6B12-6B40-B638-134DE30E3211}">
   <dimension ref="B1:T34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="160" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="160" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="19" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:19">
       <c r="B1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19">
       <c r="B3" s="6" t="str">
-        <f t="shared" ref="B3:S3" ca="1" si="0">VLOOKUP(B2,$M$3:$N$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(B2,$N$2:$O$19,2,FALSE)</f>
         <v>CM</v>
       </c>
       <c r="C3" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">VLOOKUP(C2,$N$2:$O$19,2,FALSE)</f>
         <v>MA</v>
       </c>
       <c r="D3" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">VLOOKUP(D2,$N$2:$O$19,2,FALSE)</f>
+        <v>CA</v>
+      </c>
+      <c r="E3" s="7" t="str">
+        <f ca="1">VLOOKUP(E2,$N$2:$O$19,2,FALSE)</f>
         <v>AC</v>
       </c>
-      <c r="E3" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>CA</v>
-      </c>
       <c r="F3" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">VLOOKUP(F2,$N$2:$O$19,2,FALSE)</f>
         <v>AU</v>
       </c>
       <c r="G3" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">VLOOKUP(G2,$N$2:$O$19,2,FALSE)</f>
+        <v>MP</v>
+      </c>
+      <c r="H3" s="7" t="str">
+        <f ca="1">VLOOKUP(H2,$N$2:$O$19,2,FALSE)</f>
         <v>IA</v>
       </c>
-      <c r="H3" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>MP</v>
-      </c>
       <c r="I3" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">VLOOKUP(I2,$N$2:$O$19,2,FALSE)</f>
         <v>SI</v>
       </c>
       <c r="J3" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">VLOOKUP(J2,$N$2:$O$19,2,FALSE)</f>
+        <v>IR</v>
+      </c>
+      <c r="K3" s="7" t="str">
+        <f ca="1">VLOOKUP(K2,$N$2:$O$19,2,FALSE)</f>
+        <v>RA</v>
+      </c>
+      <c r="L3" s="7" t="str">
+        <f ca="1">VLOOKUP(L2,$N$2:$O$19,2,FALSE)</f>
+        <v>AT</v>
+      </c>
+      <c r="M3" s="7" t="str">
+        <f ca="1">VLOOKUP(M2,$N$2:$O$19,2,FALSE)</f>
         <v>CP</v>
       </c>
-      <c r="K3" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>AT</v>
-      </c>
-      <c r="L3" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="N3" s="7" t="str">
+        <f ca="1">VLOOKUP(N2,$N$2:$O$19,2,FALSE)</f>
         <v>PL</v>
       </c>
-      <c r="M3" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>IR</v>
-      </c>
-      <c r="N3" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>RA</v>
-      </c>
       <c r="O3" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">VLOOKUP(O2,$N$2:$O$19,2,FALSE)</f>
         <v>PS</v>
       </c>
       <c r="P3" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">VLOOKUP(P2,$N$2:$O$19,2,FALSE)</f>
         <v>SA</v>
       </c>
       <c r="Q3" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">VLOOKUP(Q2,$N$2:$O$19,2,FALSE)</f>
         <v>SC</v>
       </c>
       <c r="R3" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">VLOOKUP(R2,$N$2:$O$19,2,FALSE)</f>
         <v>PE</v>
       </c>
       <c r="S3" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">VLOOKUP(S2,$N$2:$O$19,2,FALSE)</f>
         <v>PM</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:19">
       <c r="B4" s="5">
-        <v>18.636364</v>
+        <v>15.090909</v>
       </c>
       <c r="C4" s="5">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5">
-        <v>12.64</v>
+        <v>9.4444440000000007</v>
       </c>
       <c r="E4" s="5">
-        <v>12.111110999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="F4" s="5">
-        <v>10.75</v>
+        <v>8.4375</v>
       </c>
       <c r="G4" s="5">
-        <v>10.272727</v>
+        <v>8.25</v>
       </c>
       <c r="H4" s="5">
-        <v>10</v>
+        <v>7.3636359999999996</v>
       </c>
       <c r="I4" s="5">
-        <v>8.9411760000000005</v>
+        <v>7.2352939999999997</v>
       </c>
       <c r="J4" s="5">
-        <v>8.7692309999999996</v>
+        <v>6.9</v>
       </c>
       <c r="K4" s="5">
-        <v>8.6</v>
+        <v>6.6666670000000003</v>
       </c>
       <c r="L4" s="5">
-        <v>8.5555559999999993</v>
+        <v>6.4</v>
       </c>
       <c r="M4" s="5">
-        <v>8.3000000000000007</v>
+        <v>6.3846150000000002</v>
       </c>
       <c r="N4" s="5">
-        <v>8</v>
+        <v>6.3333329999999997</v>
       </c>
       <c r="O4" s="5">
-        <v>7.875</v>
+        <v>6.25</v>
       </c>
       <c r="P4" s="5">
-        <v>7.5909089999999999</v>
+        <v>5.9090910000000001</v>
       </c>
       <c r="Q4" s="5">
-        <v>5.4318179999999998</v>
+        <v>4.2727269999999997</v>
       </c>
       <c r="R4" s="5">
-        <v>5.05</v>
+        <v>4.05</v>
       </c>
       <c r="S4" s="5">
         <v>2.875</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:19">
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -2164,86 +2196,86 @@
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:19">
       <c r="B6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19">
       <c r="B8" s="6" t="str">
-        <f t="shared" ref="B8:S8" ca="1" si="1">VLOOKUP(B7,$N$3:$O$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(B7,$N$2:$O$19,2,FALSE)</f>
         <v>PM</v>
       </c>
       <c r="C8" s="7" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">VLOOKUP(C7,$N$2:$O$19,2,FALSE)</f>
         <v>IR</v>
       </c>
       <c r="D8" s="7" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">VLOOKUP(D7,$N$2:$O$19,2,FALSE)</f>
         <v>CA</v>
       </c>
       <c r="E8" s="7" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">VLOOKUP(E7,$N$2:$O$19,2,FALSE)</f>
         <v>PS</v>
       </c>
       <c r="F8" s="7" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">VLOOKUP(F7,$N$2:$O$19,2,FALSE)</f>
         <v>IA</v>
       </c>
       <c r="G8" s="7" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">VLOOKUP(G7,$N$2:$O$19,2,FALSE)</f>
         <v>AU</v>
       </c>
       <c r="H8" s="7" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">VLOOKUP(H7,$N$2:$O$19,2,FALSE)</f>
         <v>CP</v>
       </c>
       <c r="I8" s="7" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">VLOOKUP(I7,$N$2:$O$19,2,FALSE)</f>
         <v>SC</v>
       </c>
       <c r="J8" s="7" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">VLOOKUP(J7,$N$2:$O$19,2,FALSE)</f>
         <v>SI</v>
       </c>
       <c r="K8" s="7" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">VLOOKUP(K7,$N$2:$O$19,2,FALSE)</f>
         <v>MA</v>
       </c>
       <c r="L8" s="7" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">VLOOKUP(L7,$N$2:$O$19,2,FALSE)</f>
         <v>CM</v>
       </c>
       <c r="M8" s="7" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">VLOOKUP(M7,$N$2:$O$19,2,FALSE)</f>
         <v>MP</v>
       </c>
       <c r="N8" s="7" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">VLOOKUP(N7,$N$2:$O$19,2,FALSE)</f>
         <v>PE</v>
       </c>
       <c r="O8" s="7" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">VLOOKUP(O7,$N$2:$O$19,2,FALSE)</f>
         <v>AC</v>
       </c>
       <c r="P8" s="7" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">VLOOKUP(P7,$N$2:$O$19,2,FALSE)</f>
         <v>SA</v>
       </c>
       <c r="Q8" s="7" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">VLOOKUP(Q7,$N$2:$O$19,2,FALSE)</f>
         <v>RA</v>
       </c>
-      <c r="R8" s="7" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="R8" s="8" t="str">
+        <f ca="1">VLOOKUP(R7,$N$2:$O$19,2,FALSE)</f>
         <v>PL</v>
       </c>
-      <c r="S8" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="S8" s="6" t="str">
+        <f ca="1">VLOOKUP(S7,$N$2:$O$19,2,FALSE)</f>
         <v>AT</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:19">
       <c r="B9" s="5">
         <v>0.53766199999999997</v>
       </c>
@@ -2299,7 +2331,7 @@
         <v>0.18939400000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:19">
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -2319,277 +2351,295 @@
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:19">
       <c r="B11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19">
       <c r="B13" s="6" t="str">
-        <f t="shared" ref="B13:S13" ca="1" si="2">VLOOKUP(B12,$N$3:$O$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(B12,$N$2:$O$19,2,FALSE)</f>
         <v>CP</v>
       </c>
       <c r="C13" s="7" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">VLOOKUP(C12,$N$2:$O$19,2,FALSE)</f>
         <v>CM</v>
       </c>
       <c r="D13" s="7" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">VLOOKUP(D12,$N$2:$O$19,2,FALSE)</f>
         <v>AC</v>
       </c>
       <c r="E13" s="7" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">VLOOKUP(E12,$N$2:$O$19,2,FALSE)</f>
         <v>IR</v>
       </c>
       <c r="F13" s="7" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">VLOOKUP(F12,$N$2:$O$19,2,FALSE)</f>
         <v>AU</v>
       </c>
       <c r="G13" s="7" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">VLOOKUP(G12,$N$2:$O$19,2,FALSE)</f>
         <v>PS</v>
       </c>
       <c r="H13" s="7" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">VLOOKUP(H12,$N$2:$O$19,2,FALSE)</f>
         <v>SA</v>
       </c>
       <c r="I13" s="7" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">VLOOKUP(I12,$N$2:$O$19,2,FALSE)</f>
         <v>IA</v>
       </c>
       <c r="J13" s="7" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">VLOOKUP(J12,$N$2:$O$19,2,FALSE)</f>
         <v>PE</v>
       </c>
       <c r="K13" s="7" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">VLOOKUP(K12,$N$2:$O$19,2,FALSE)</f>
         <v>SC</v>
       </c>
       <c r="L13" s="7" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">VLOOKUP(L12,$N$2:$O$19,2,FALSE)</f>
         <v>SI</v>
       </c>
       <c r="M13" s="7" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">VLOOKUP(M12,$N$2:$O$19,2,FALSE)</f>
         <v>MA</v>
       </c>
       <c r="N13" s="7" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">VLOOKUP(N12,$N$2:$O$19,2,FALSE)</f>
         <v>AT</v>
       </c>
       <c r="O13" s="7" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">VLOOKUP(O12,$N$2:$O$19,2,FALSE)</f>
         <v>RA</v>
       </c>
       <c r="P13" s="7" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">VLOOKUP(P12,$N$2:$O$19,2,FALSE)</f>
         <v>CA</v>
       </c>
       <c r="Q13" s="7" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">VLOOKUP(Q12,$N$2:$O$19,2,FALSE)</f>
         <v>MP</v>
       </c>
       <c r="R13" s="7" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">VLOOKUP(R12,$N$2:$O$19,2,FALSE)</f>
         <v>PL</v>
       </c>
       <c r="S13" s="8" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">VLOOKUP(S12,$N$2:$O$19,2,FALSE)</f>
         <v>PM</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:19">
       <c r="B14" s="5">
+        <f ca="1">B12/B13</f>
         <v>0.14912280701754385</v>
       </c>
       <c r="C14" s="5">
+        <f ca="1">C12/C13</f>
         <v>0.12195121951219512</v>
       </c>
       <c r="D14" s="5">
+        <f ca="1">D12/D13</f>
         <v>0.12025316455696203</v>
       </c>
       <c r="E14" s="5">
+        <f ca="1">E12/E13</f>
         <v>0.10843373493975904</v>
       </c>
       <c r="F14" s="5">
+        <f ca="1">F12/F13</f>
         <v>0.10465116279069768</v>
       </c>
       <c r="G14" s="5">
+        <f ca="1">G12/G13</f>
         <v>9.5238095238095233E-2</v>
       </c>
       <c r="H14" s="5">
+        <f ca="1">H12/H13</f>
         <v>7.1856287425149698E-2</v>
       </c>
       <c r="I14" s="5">
+        <f ca="1">I12/I13</f>
         <v>4.4247787610619468E-2</v>
       </c>
       <c r="J14" s="5">
+        <f ca="1">J12/J13</f>
         <v>3.9603960396039604E-2</v>
       </c>
       <c r="K14" s="5">
+        <f ca="1">K12/K13</f>
         <v>3.3472803347280332E-2</v>
       </c>
       <c r="L14" s="5">
+        <f ca="1">L12/L13</f>
         <v>2.6315789473684209E-2</v>
       </c>
       <c r="M14" s="5">
+        <f ca="1">M12/M13</f>
         <v>2.564102564102564E-2</v>
       </c>
       <c r="N14" s="5">
+        <f ca="1">N12/N13</f>
         <v>2.3255813953488372E-2</v>
       </c>
       <c r="O14" s="5">
+        <f ca="1">O12/O13</f>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="P14" s="5">
+        <f ca="1">P12/P13</f>
         <v>1.834862385321101E-2</v>
       </c>
       <c r="Q14" s="5">
+        <f ca="1">Q12/Q13</f>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="R14" s="5">
+        <f ca="1">R12/R13</f>
         <v>0</v>
       </c>
       <c r="S14" s="5">
+        <f ca="1">S12/S13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20">
       <c r="B17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20">
       <c r="B19" s="6" t="str">
-        <f t="shared" ref="B19" ca="1" si="3">VLOOKUP(B18,$M$3:$N$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(B18,$N$2:$O$19,2,FALSE)</f>
         <v>CM</v>
       </c>
       <c r="C19" s="7" t="str">
-        <f t="shared" ref="C19" ca="1" si="4">VLOOKUP(C18,$M$3:$N$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(C18,$N$2:$O$19,2,FALSE)</f>
         <v>MA</v>
       </c>
       <c r="D19" s="7" t="str">
-        <f t="shared" ref="D19" ca="1" si="5">VLOOKUP(D18,$M$3:$N$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D18,$N$2:$O$19,2,FALSE)</f>
+        <v>CA</v>
+      </c>
+      <c r="E19" s="7" t="str">
+        <f ca="1">VLOOKUP(E18,$N$2:$O$19,2,FALSE)</f>
         <v>AC</v>
       </c>
-      <c r="E19" s="7" t="str">
-        <f t="shared" ref="E19" ca="1" si="6">VLOOKUP(E18,$M$3:$N$21,2,FALSE)</f>
-        <v>CA</v>
-      </c>
       <c r="F19" s="7" t="str">
-        <f t="shared" ref="F19" ca="1" si="7">VLOOKUP(F18,$M$3:$N$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(F18,$N$2:$O$19,2,FALSE)</f>
         <v>AU</v>
       </c>
       <c r="G19" s="7" t="str">
-        <f t="shared" ref="G19" ca="1" si="8">VLOOKUP(G18,$M$3:$N$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(G18,$N$2:$O$19,2,FALSE)</f>
+        <v>MP</v>
+      </c>
+      <c r="H19" s="7" t="str">
+        <f ca="1">VLOOKUP(H18,$N$2:$O$19,2,FALSE)</f>
         <v>IA</v>
       </c>
-      <c r="H19" s="7" t="str">
-        <f t="shared" ref="H19" ca="1" si="9">VLOOKUP(H18,$M$3:$N$21,2,FALSE)</f>
-        <v>MP</v>
-      </c>
       <c r="I19" s="7" t="str">
-        <f t="shared" ref="I19" ca="1" si="10">VLOOKUP(I18,$M$3:$N$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(I18,$N$2:$O$19,2,FALSE)</f>
         <v>SI</v>
       </c>
       <c r="J19" s="7" t="str">
-        <f t="shared" ref="J19" ca="1" si="11">VLOOKUP(J18,$M$3:$N$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(J18,$N$2:$O$19,2,FALSE)</f>
+        <v>IR</v>
+      </c>
+      <c r="K19" s="7" t="str">
+        <f ca="1">VLOOKUP(K18,$N$2:$O$19,2,FALSE)</f>
+        <v>RA</v>
+      </c>
+      <c r="L19" s="7" t="str">
+        <f ca="1">VLOOKUP(L18,$N$2:$O$19,2,FALSE)</f>
+        <v>AT</v>
+      </c>
+      <c r="M19" s="7" t="str">
+        <f ca="1">VLOOKUP(M18,$N$2:$O$19,2,FALSE)</f>
         <v>CP</v>
       </c>
-      <c r="K19" s="7" t="str">
-        <f t="shared" ref="K19" ca="1" si="12">VLOOKUP(K18,$M$3:$N$21,2,FALSE)</f>
-        <v>AT</v>
-      </c>
-      <c r="L19" s="7" t="str">
-        <f t="shared" ref="L19" ca="1" si="13">VLOOKUP(L18,$M$3:$N$21,2,FALSE)</f>
+      <c r="N19" s="7" t="str">
+        <f ca="1">VLOOKUP(N18,$N$2:$O$19,2,FALSE)</f>
         <v>PL</v>
       </c>
-      <c r="M19" s="7" t="str">
-        <f t="shared" ref="M19" ca="1" si="14">VLOOKUP(M18,$M$3:$N$21,2,FALSE)</f>
-        <v>IR</v>
-      </c>
-      <c r="N19" s="7" t="str">
-        <f t="shared" ref="N19" ca="1" si="15">VLOOKUP(N18,$M$3:$N$21,2,FALSE)</f>
-        <v>RA</v>
-      </c>
       <c r="O19" s="7" t="str">
-        <f t="shared" ref="O19" ca="1" si="16">VLOOKUP(O18,$M$3:$N$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(O18,$N$2:$O$19,2,FALSE)</f>
         <v>PS</v>
       </c>
       <c r="P19" s="7" t="str">
-        <f t="shared" ref="P19" ca="1" si="17">VLOOKUP(P18,$M$3:$N$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(P18,$N$2:$O$19,2,FALSE)</f>
         <v>SA</v>
       </c>
       <c r="Q19" s="7" t="str">
-        <f t="shared" ref="Q19" ca="1" si="18">VLOOKUP(Q18,$M$3:$N$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(Q18,$N$2:$O$19,2,FALSE)</f>
         <v>SC</v>
       </c>
       <c r="R19" s="8" t="str">
-        <f t="shared" ref="R19" ca="1" si="19">VLOOKUP(R18,$M$3:$N$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(R18,$N$2:$O$19,2,FALSE)</f>
         <v>PE</v>
       </c>
       <c r="T19" s="8" t="str">
-        <f ca="1">VLOOKUP(S18,$M$3:$N$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(T18,$N$2:$O$19,2,FALSE)</f>
         <v>PM</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20">
       <c r="B20" s="5">
-        <v>18.636364</v>
+        <v>15.090909</v>
       </c>
       <c r="C20" s="5">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D20" s="5">
-        <v>12.64</v>
+        <v>9.4444440000000007</v>
       </c>
       <c r="E20" s="5">
-        <v>12.111110999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="F20" s="5">
-        <v>10.75</v>
+        <v>8.4375</v>
       </c>
       <c r="G20" s="5">
-        <v>10.272727</v>
+        <v>8.25</v>
       </c>
       <c r="H20" s="5">
-        <v>10</v>
+        <v>7.3636359999999996</v>
       </c>
       <c r="I20" s="5">
-        <v>8.9411760000000005</v>
+        <v>7.2352939999999997</v>
       </c>
       <c r="J20" s="5">
-        <v>8.7692309999999996</v>
+        <v>6.9</v>
       </c>
       <c r="K20" s="5">
-        <v>8.6</v>
+        <v>6.6666670000000003</v>
       </c>
       <c r="L20" s="5">
-        <v>8.5555559999999993</v>
+        <v>6.4</v>
       </c>
       <c r="M20" s="5">
-        <v>8.3000000000000007</v>
+        <v>6.3846150000000002</v>
       </c>
       <c r="N20" s="5">
-        <v>8</v>
+        <v>6.3333329999999997</v>
       </c>
       <c r="O20" s="5">
-        <v>7.875</v>
+        <v>6.25</v>
       </c>
       <c r="P20" s="5">
-        <v>7.5909089999999999</v>
+        <v>5.9090910000000001</v>
       </c>
       <c r="Q20" s="5">
-        <v>5.4318179999999998</v>
+        <v>4.2727269999999997</v>
       </c>
       <c r="R20" s="5">
-        <v>5.05</v>
+        <v>4.05</v>
       </c>
       <c r="T20" s="5">
         <v>2.875</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20">
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -2609,86 +2659,86 @@
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20">
       <c r="B22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20">
       <c r="B24" s="6" t="str">
-        <f ca="1">VLOOKUP(C23,$N$3:$O$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(B23,$N$2:$O$19,2,FALSE)</f>
         <v>IR</v>
       </c>
       <c r="C24" s="7" t="str">
-        <f ca="1">VLOOKUP(D23,$N$3:$O$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(C23,$N$2:$O$19,2,FALSE)</f>
         <v>CA</v>
       </c>
       <c r="D24" s="7" t="str">
-        <f ca="1">VLOOKUP(E23,$N$3:$O$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D23,$N$2:$O$19,2,FALSE)</f>
         <v>PS</v>
       </c>
       <c r="E24" s="7" t="str">
-        <f ca="1">VLOOKUP(F23,$N$3:$O$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(E23,$N$2:$O$19,2,FALSE)</f>
         <v>IA</v>
       </c>
       <c r="F24" s="7" t="str">
-        <f ca="1">VLOOKUP(G23,$N$3:$O$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(F23,$N$2:$O$19,2,FALSE)</f>
         <v>AU</v>
       </c>
       <c r="G24" s="7" t="str">
-        <f ca="1">VLOOKUP(H23,$N$3:$O$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(G23,$N$2:$O$19,2,FALSE)</f>
         <v>CP</v>
       </c>
       <c r="H24" s="7" t="str">
-        <f ca="1">VLOOKUP(I23,$N$3:$O$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(H23,$N$2:$O$19,2,FALSE)</f>
         <v>SC</v>
       </c>
       <c r="I24" s="7" t="str">
-        <f ca="1">VLOOKUP(J23,$N$3:$O$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(I23,$N$2:$O$19,2,FALSE)</f>
         <v>SI</v>
       </c>
       <c r="J24" s="7" t="str">
-        <f ca="1">VLOOKUP(K23,$N$3:$O$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(J23,$N$2:$O$19,2,FALSE)</f>
         <v>MA</v>
       </c>
       <c r="K24" s="7" t="str">
-        <f ca="1">VLOOKUP(L23,$N$3:$O$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(K23,$N$2:$O$19,2,FALSE)</f>
         <v>CM</v>
       </c>
       <c r="L24" s="7" t="str">
-        <f ca="1">VLOOKUP(M23,$N$3:$O$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(L23,$N$2:$O$19,2,FALSE)</f>
         <v>MP</v>
       </c>
       <c r="M24" s="7" t="str">
-        <f ca="1">VLOOKUP(N23,$N$3:$O$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(M23,$N$2:$O$19,2,FALSE)</f>
         <v>PE</v>
       </c>
       <c r="N24" s="7" t="str">
-        <f ca="1">VLOOKUP(O23,$N$3:$O$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(N23,$N$2:$O$19,2,FALSE)</f>
         <v>AC</v>
       </c>
       <c r="O24" s="7" t="str">
-        <f ca="1">VLOOKUP(P23,$N$3:$O$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(O23,$N$2:$O$19,2,FALSE)</f>
         <v>SA</v>
       </c>
       <c r="P24" s="7" t="str">
-        <f ca="1">VLOOKUP(Q23,$N$3:$O$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(P23,$N$2:$O$19,2,FALSE)</f>
         <v>RA</v>
       </c>
       <c r="Q24" s="7" t="str">
-        <f ca="1">VLOOKUP(R23,$N$3:$O$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(Q23,$N$2:$O$19,2,FALSE)</f>
         <v>PL</v>
       </c>
       <c r="R24" s="8" t="str">
-        <f ca="1">VLOOKUP(S23,$N$3:$O$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(R23,$N$2:$O$19,2,FALSE)</f>
         <v>AT</v>
       </c>
       <c r="T24" s="6" t="str">
-        <f t="shared" ref="T24" ca="1" si="20">VLOOKUP(T23,$N$3:$O$21,2,FALSE)</f>
+        <f t="shared" ref="T24" ca="1" si="0">VLOOKUP(T23,$N$3:$O$21,2,FALSE)</f>
         <v>PM</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20">
       <c r="B25" s="5">
         <v>0.47654999999999997</v>
       </c>
@@ -2744,7 +2794,7 @@
         <v>0.53766199999999997</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20">
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -2764,78 +2814,78 @@
       <c r="R26" s="12"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:20">
       <c r="B27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20">
       <c r="B29" s="6" t="str">
-        <f t="shared" ref="B29" ca="1" si="21">VLOOKUP(B28,$N$3:$O$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(B28,$N$2:$O$19,2,FALSE)</f>
         <v>CP</v>
       </c>
       <c r="C29" s="7" t="str">
-        <f t="shared" ref="C29" ca="1" si="22">VLOOKUP(C28,$N$3:$O$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(C28,$N$2:$O$19,2,FALSE)</f>
         <v>CM</v>
       </c>
       <c r="D29" s="7" t="str">
-        <f t="shared" ref="D29" ca="1" si="23">VLOOKUP(D28,$N$3:$O$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(D28,$N$2:$O$19,2,FALSE)</f>
         <v>AC</v>
       </c>
       <c r="E29" s="7" t="str">
-        <f t="shared" ref="E29" ca="1" si="24">VLOOKUP(E28,$N$3:$O$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(E28,$N$2:$O$19,2,FALSE)</f>
         <v>IR</v>
       </c>
       <c r="F29" s="7" t="str">
-        <f t="shared" ref="F29" ca="1" si="25">VLOOKUP(F28,$N$3:$O$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(F28,$N$2:$O$19,2,FALSE)</f>
         <v>AU</v>
       </c>
       <c r="G29" s="7" t="str">
-        <f t="shared" ref="G29" ca="1" si="26">VLOOKUP(G28,$N$3:$O$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(G28,$N$2:$O$19,2,FALSE)</f>
         <v>PS</v>
       </c>
       <c r="H29" s="7" t="str">
-        <f t="shared" ref="H29" ca="1" si="27">VLOOKUP(H28,$N$3:$O$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(H28,$N$2:$O$19,2,FALSE)</f>
         <v>SA</v>
       </c>
       <c r="I29" s="7" t="str">
-        <f t="shared" ref="I29" ca="1" si="28">VLOOKUP(I28,$N$3:$O$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(I28,$N$2:$O$19,2,FALSE)</f>
         <v>IA</v>
       </c>
       <c r="J29" s="7" t="str">
-        <f t="shared" ref="J29" ca="1" si="29">VLOOKUP(J28,$N$3:$O$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(J28,$N$2:$O$19,2,FALSE)</f>
         <v>PE</v>
       </c>
       <c r="K29" s="7" t="str">
-        <f t="shared" ref="K29" ca="1" si="30">VLOOKUP(K28,$N$3:$O$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(K28,$N$2:$O$19,2,FALSE)</f>
         <v>SC</v>
       </c>
       <c r="L29" s="7" t="str">
-        <f t="shared" ref="L29" ca="1" si="31">VLOOKUP(L28,$N$3:$O$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(L28,$N$2:$O$19,2,FALSE)</f>
         <v>SI</v>
       </c>
       <c r="M29" s="7" t="str">
-        <f t="shared" ref="M29" ca="1" si="32">VLOOKUP(M28,$N$3:$O$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(M28,$N$2:$O$19,2,FALSE)</f>
         <v>MA</v>
       </c>
       <c r="N29" s="7" t="str">
-        <f t="shared" ref="N29" ca="1" si="33">VLOOKUP(N28,$N$3:$O$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(N28,$N$2:$O$19,2,FALSE)</f>
         <v>AT</v>
       </c>
       <c r="O29" s="7" t="str">
-        <f t="shared" ref="O29" ca="1" si="34">VLOOKUP(O28,$N$3:$O$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(O28,$N$2:$O$19,2,FALSE)</f>
         <v>RA</v>
       </c>
       <c r="P29" s="7" t="str">
-        <f t="shared" ref="P29" ca="1" si="35">VLOOKUP(P28,$N$3:$O$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(P28,$N$2:$O$19,2,FALSE)</f>
         <v>CA</v>
       </c>
       <c r="Q29" s="7" t="str">
-        <f t="shared" ref="Q29" ca="1" si="36">VLOOKUP(Q28,$N$3:$O$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(Q28,$N$2:$O$19,2,FALSE)</f>
         <v>MP</v>
       </c>
       <c r="R29" s="8" t="str">
-        <f t="shared" ref="R29" ca="1" si="37">VLOOKUP(R28,$N$3:$O$21,2,FALSE)</f>
+        <f ca="1">VLOOKUP(R28,$N$2:$O$19,2,FALSE)</f>
         <v>PL</v>
       </c>
       <c r="T29" s="8" t="str">
@@ -2843,133 +2893,150 @@
         <v>PM</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:20">
       <c r="B30" s="5">
+        <f ca="1">B28/B29</f>
         <v>0.14912280701754385</v>
       </c>
       <c r="C30" s="5">
+        <f ca="1">C28/C29</f>
         <v>0.12195121951219512</v>
       </c>
       <c r="D30" s="5">
+        <f ca="1">D28/D29</f>
         <v>0.12025316455696203</v>
       </c>
       <c r="E30" s="5">
+        <f ca="1">E28/E29</f>
         <v>0.10843373493975904</v>
       </c>
       <c r="F30" s="5">
+        <f ca="1">F28/F29</f>
         <v>0.10465116279069768</v>
       </c>
       <c r="G30" s="5">
+        <f ca="1">G28/G29</f>
         <v>9.5238095238095233E-2</v>
       </c>
       <c r="H30" s="5">
+        <f ca="1">H28/H29</f>
         <v>7.1856287425149698E-2</v>
       </c>
       <c r="I30" s="5">
+        <f ca="1">I28/I29</f>
         <v>4.4247787610619468E-2</v>
       </c>
       <c r="J30" s="5">
+        <f ca="1">J28/J29</f>
         <v>3.9603960396039604E-2</v>
       </c>
       <c r="K30" s="5">
+        <f ca="1">K28/K29</f>
         <v>3.3472803347280332E-2</v>
       </c>
       <c r="L30" s="5">
+        <f ca="1">L28/L29</f>
         <v>2.6315789473684209E-2</v>
       </c>
       <c r="M30" s="5">
+        <f ca="1">M28/M29</f>
         <v>2.564102564102564E-2</v>
       </c>
       <c r="N30" s="5">
+        <f ca="1">N28/N29</f>
         <v>2.3255813953488372E-2</v>
       </c>
       <c r="O30" s="5">
+        <f ca="1">O28/O29</f>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="P30" s="5">
+        <f ca="1">P28/P29</f>
         <v>1.834862385321101E-2</v>
       </c>
       <c r="Q30" s="5">
+        <f ca="1">Q28/Q29</f>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="R30" s="5">
+        <f ca="1">R28/R29</f>
         <v>0</v>
       </c>
       <c r="T30" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18">
       <c r="B33" s="6" t="str">
-        <f ca="1">VLOOKUP(B32,$N$2:$O$19,2,FALSE)</f>
+        <f t="shared" ref="B33:R33" ca="1" si="1">VLOOKUP(B32,$N$2:$O$19,2,FALSE)</f>
         <v>AC</v>
       </c>
       <c r="C33" s="7" t="str">
-        <f ca="1">VLOOKUP(C32,$N$2:$O$19,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>CM</v>
       </c>
       <c r="D33" s="7" t="str">
-        <f ca="1">VLOOKUP(D32,$N$2:$O$19,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>AU</v>
       </c>
       <c r="E33" s="7" t="str">
-        <f ca="1">VLOOKUP(E32,$N$2:$O$19,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>CP</v>
       </c>
       <c r="F33" s="7" t="str">
-        <f ca="1">VLOOKUP(F32,$N$2:$O$19,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>SA</v>
       </c>
       <c r="G33" s="7" t="str">
-        <f ca="1">VLOOKUP(G32,$N$2:$O$19,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>IR</v>
       </c>
       <c r="H33" s="7" t="str">
-        <f ca="1">VLOOKUP(H32,$N$2:$O$19,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>SC</v>
       </c>
       <c r="I33" s="7" t="str">
-        <f ca="1">VLOOKUP(I32,$N$2:$O$19,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>PS</v>
       </c>
       <c r="J33" s="7" t="str">
-        <f ca="1">VLOOKUP(J32,$N$2:$O$19,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>IA</v>
       </c>
       <c r="K33" s="7" t="str">
-        <f ca="1">VLOOKUP(K32,$N$2:$O$19,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>PE</v>
       </c>
       <c r="L33" s="7" t="str">
-        <f ca="1">VLOOKUP(L32,$N$2:$O$19,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>SI</v>
       </c>
       <c r="M33" s="7" t="str">
-        <f ca="1">VLOOKUP(M32,$N$2:$O$19,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>MA</v>
       </c>
       <c r="N33" s="7" t="str">
-        <f ca="1">VLOOKUP(N32,$N$2:$O$19,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>CA</v>
       </c>
       <c r="O33" s="7" t="str">
-        <f ca="1">VLOOKUP(O32,$N$2:$O$19,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>AT</v>
       </c>
       <c r="P33" s="7" t="str">
-        <f ca="1">VLOOKUP(P32,$N$2:$O$19,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>RA</v>
       </c>
       <c r="Q33" s="7" t="str">
-        <f ca="1">VLOOKUP(Q32,$N$2:$O$19,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>MP</v>
       </c>
       <c r="R33" s="8" t="str">
-        <f ca="1">VLOOKUP(R32,$N$2:$O$19,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>PL</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18">
       <c r="B34" s="13">
         <v>38</v>
       </c>
@@ -3023,7 +3090,27 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B4:S5">
+  <conditionalFormatting sqref="B5:S5">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:S10">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:S21">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -3033,8 +3120,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:S10">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="B26:S26">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3043,8 +3130,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:S14">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="T30">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3053,7 +3140,47 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:S21 B20:R20 T20">
+  <conditionalFormatting sqref="T25">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:R34">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFFFC000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:S4">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:R20">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T20">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3063,18 +3190,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:S26 B25:R25">
+  <conditionalFormatting sqref="B14:S14">
     <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color theme="4" tint="0.39997558519241921"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:R30 T30">
-    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3083,7 +3200,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T25">
+  <conditionalFormatting sqref="B30:R30">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFFFC000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:S9">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3093,13 +3220,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B34:R34">
+  <conditionalFormatting sqref="B25:R25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
-        <color rgb="FFFFC000"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
